--- a/data/ceo_pay_2015_v3.xlsx
+++ b/data/ceo_pay_2015_v3.xlsx
@@ -1422,7 +1422,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1462,6 +1462,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1747,10 +1754,13 @@
   <dimension ref="A1:AX114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="9.140625" style="21"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1809,7 +1819,7 @@
       <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="V1" s="4" t="s">
@@ -1959,7 +1969,7 @@
         <v>2947282</v>
       </c>
       <c r="T2" s="7"/>
-      <c r="U2" s="13">
+      <c r="U2" s="20">
         <v>425000</v>
       </c>
       <c r="V2" s="13">
@@ -2114,7 +2124,7 @@
         <v>2203222</v>
       </c>
       <c r="T3" s="7"/>
-      <c r="U3" s="13">
+      <c r="U3" s="20">
         <v>384671</v>
       </c>
       <c r="V3" s="13">
@@ -2269,7 +2279,7 @@
         <v>1681840</v>
       </c>
       <c r="T4" s="7"/>
-      <c r="U4" s="13">
+      <c r="U4" s="20">
         <v>81840</v>
       </c>
       <c r="V4" s="13">
@@ -2425,7 +2435,7 @@
         <v>1301619</v>
       </c>
       <c r="T5" s="7"/>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V5" s="13" t="s">
@@ -2585,7 +2595,7 @@
         <v>324448</v>
       </c>
       <c r="T6" s="7"/>
-      <c r="U6" s="13">
+      <c r="U6" s="20">
         <v>260000</v>
       </c>
       <c r="V6" s="13">
@@ -2740,7 +2750,7 @@
         <v>3837953</v>
       </c>
       <c r="T7" s="7"/>
-      <c r="U7" s="13">
+      <c r="U7" s="20">
         <v>723461</v>
       </c>
       <c r="V7" s="13">
@@ -2895,7 +2905,7 @@
         <v>1662572</v>
       </c>
       <c r="T8" s="7"/>
-      <c r="U8" s="13">
+      <c r="U8" s="20">
         <v>715000</v>
       </c>
       <c r="V8" s="13">
@@ -3050,7 +3060,7 @@
         <v>1639000</v>
       </c>
       <c r="T9" s="7"/>
-      <c r="U9" s="13">
+      <c r="U9" s="20">
         <v>500000</v>
       </c>
       <c r="V9" s="13">
@@ -3205,7 +3215,7 @@
         <v>496739</v>
       </c>
       <c r="T10" s="7"/>
-      <c r="U10" s="13">
+      <c r="U10" s="20">
         <v>300000</v>
       </c>
       <c r="V10" s="13">
@@ -3360,7 +3370,7 @@
         <v>2287562</v>
       </c>
       <c r="T11" s="7"/>
-      <c r="U11" s="13">
+      <c r="U11" s="20">
         <v>565000</v>
       </c>
       <c r="V11" s="13">
@@ -3515,7 +3525,7 @@
         <v>2461799</v>
       </c>
       <c r="T12" s="7"/>
-      <c r="U12" s="13">
+      <c r="U12" s="20">
         <v>450000</v>
       </c>
       <c r="V12" s="13">
@@ -3670,7 +3680,7 @@
         <v>1620471</v>
       </c>
       <c r="T13" s="7"/>
-      <c r="U13" s="13">
+      <c r="U13" s="20">
         <v>670077</v>
       </c>
       <c r="V13" s="13">
@@ -3827,7 +3837,7 @@
         <v>5369074</v>
       </c>
       <c r="T14" s="7"/>
-      <c r="U14" s="13">
+      <c r="U14" s="20">
         <v>807000</v>
       </c>
       <c r="V14" s="13">
@@ -3985,7 +3995,7 @@
         <v>792824</v>
       </c>
       <c r="T15" s="7"/>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V15" s="13" t="s">
@@ -4138,7 +4148,7 @@
         <v>1597292</v>
       </c>
       <c r="T16" s="7"/>
-      <c r="U16" s="13">
+      <c r="U16" s="20">
         <v>550000</v>
       </c>
       <c r="V16" s="13">
@@ -4293,7 +4303,7 @@
         <v>1244662</v>
       </c>
       <c r="T17" s="7"/>
-      <c r="U17" s="13">
+      <c r="U17" s="20">
         <v>420318</v>
       </c>
       <c r="V17" s="13">
@@ -4449,7 +4459,7 @@
         <v>330405</v>
       </c>
       <c r="T18" s="7"/>
-      <c r="U18" s="13" t="s">
+      <c r="U18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V18" s="13" t="s">
@@ -4602,7 +4612,7 @@
         <v>4546545</v>
       </c>
       <c r="T19" s="7"/>
-      <c r="U19" s="13">
+      <c r="U19" s="20">
         <v>700000</v>
       </c>
       <c r="V19" s="13">
@@ -4757,7 +4767,7 @@
         <v>1352511</v>
       </c>
       <c r="T20" s="7"/>
-      <c r="U20" s="13">
+      <c r="U20" s="20">
         <v>490332</v>
       </c>
       <c r="V20" s="13">
@@ -4912,7 +4922,7 @@
         <v>2450327</v>
       </c>
       <c r="T21" s="7"/>
-      <c r="U21" s="13">
+      <c r="U21" s="20">
         <v>83981</v>
       </c>
       <c r="V21" s="13">
@@ -5069,7 +5079,7 @@
         <v>5614386</v>
       </c>
       <c r="T22" s="7"/>
-      <c r="U22" s="13">
+      <c r="U22" s="20">
         <v>650000</v>
       </c>
       <c r="V22" s="13">
@@ -5225,7 +5235,7 @@
         <v>1002703</v>
       </c>
       <c r="T23" s="7"/>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V23" s="13" t="s">
@@ -5383,7 +5393,7 @@
         <v>2141643</v>
       </c>
       <c r="T24" s="7"/>
-      <c r="U24" s="13">
+      <c r="U24" s="20">
         <v>475000</v>
       </c>
       <c r="V24" s="13">
@@ -5538,7 +5548,7 @@
         <v>6103240</v>
       </c>
       <c r="T25" s="7"/>
-      <c r="U25" s="13">
+      <c r="U25" s="20">
         <v>650000</v>
       </c>
       <c r="V25" s="13">
@@ -5695,7 +5705,7 @@
         <v>774395</v>
       </c>
       <c r="T26" s="7"/>
-      <c r="U26" s="13">
+      <c r="U26" s="20">
         <v>405000</v>
       </c>
       <c r="V26" s="13">
@@ -5850,7 +5860,7 @@
         <v>598426</v>
       </c>
       <c r="T27" s="7"/>
-      <c r="U27" s="13">
+      <c r="U27" s="20">
         <v>310000</v>
       </c>
       <c r="V27" s="13">
@@ -6005,7 +6015,7 @@
         <v>3336200</v>
       </c>
       <c r="T28" s="7"/>
-      <c r="U28" s="13">
+      <c r="U28" s="20">
         <v>525000</v>
       </c>
       <c r="V28" s="13">
@@ -6161,7 +6171,7 @@
         <v>248393</v>
       </c>
       <c r="T29" s="7"/>
-      <c r="U29" s="13" t="s">
+      <c r="U29" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="13" t="s">
@@ -6314,7 +6324,7 @@
         <v>410000</v>
       </c>
       <c r="T30" s="7"/>
-      <c r="U30" s="13">
+      <c r="U30" s="20">
         <v>384000</v>
       </c>
       <c r="V30" s="13">
@@ -6471,7 +6481,7 @@
         <v>433943</v>
       </c>
       <c r="T31" s="7"/>
-      <c r="U31" s="13">
+      <c r="U31" s="20">
         <v>343270</v>
       </c>
       <c r="V31" s="13">
@@ -6627,7 +6637,7 @@
         <v>8039302</v>
       </c>
       <c r="T32" s="7"/>
-      <c r="U32" s="13" t="s">
+      <c r="U32" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V32" s="13" t="s">
@@ -6780,7 +6790,7 @@
         <v>9642406</v>
       </c>
       <c r="T33" s="7"/>
-      <c r="U33" s="13">
+      <c r="U33" s="20">
         <v>1000000</v>
       </c>
       <c r="V33" s="13">
@@ -6936,7 +6946,7 @@
         <v>5080036</v>
       </c>
       <c r="T34" s="7"/>
-      <c r="U34" s="13" t="s">
+      <c r="U34" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V34" s="13" t="s">
@@ -7096,7 +7106,7 @@
         <v>8143742</v>
       </c>
       <c r="T35" s="7"/>
-      <c r="U35" s="13">
+      <c r="U35" s="20">
         <v>813263</v>
       </c>
       <c r="V35" s="13">
@@ -7251,7 +7261,7 @@
         <v>3461479</v>
       </c>
       <c r="T36" s="7"/>
-      <c r="U36" s="13">
+      <c r="U36" s="20">
         <v>689997</v>
       </c>
       <c r="V36" s="13">
@@ -7405,7 +7415,7 @@
         <v>781340</v>
       </c>
       <c r="T37" s="7"/>
-      <c r="U37" s="13" t="s">
+      <c r="U37" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V37" s="13" t="s">
@@ -7562,7 +7572,7 @@
         <v>210678</v>
       </c>
       <c r="T38" s="7"/>
-      <c r="U38" s="13" t="s">
+      <c r="U38" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V38" s="13" t="s">
@@ -7712,7 +7722,7 @@
         <v>4036114</v>
       </c>
       <c r="T39" s="7"/>
-      <c r="U39" s="13" t="s">
+      <c r="U39" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V39" s="13" t="s">
@@ -7870,7 +7880,7 @@
         <v>1175718</v>
       </c>
       <c r="T40" s="7"/>
-      <c r="U40" s="13">
+      <c r="U40" s="20">
         <v>268400</v>
       </c>
       <c r="V40" s="13">
@@ -8026,7 +8036,7 @@
         <v>1014762</v>
       </c>
       <c r="T41" s="7"/>
-      <c r="U41" s="13" t="s">
+      <c r="U41" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V41" s="13" t="s">
@@ -8184,7 +8194,7 @@
         <v>4362426</v>
       </c>
       <c r="T42" s="7"/>
-      <c r="U42" s="13">
+      <c r="U42" s="20">
         <v>575208</v>
       </c>
       <c r="V42" s="13">
@@ -8339,7 +8349,7 @@
         <v>1063308</v>
       </c>
       <c r="T43" s="7"/>
-      <c r="U43" s="13">
+      <c r="U43" s="20">
         <v>412008</v>
       </c>
       <c r="V43" s="13">
@@ -8494,7 +8504,7 @@
         <v>987437</v>
       </c>
       <c r="T44" s="7"/>
-      <c r="U44" s="13">
+      <c r="U44" s="20">
         <v>500000</v>
       </c>
       <c r="V44" s="13">
@@ -8650,7 +8660,7 @@
         <v>2115872</v>
       </c>
       <c r="T45" s="7"/>
-      <c r="U45" s="13" t="s">
+      <c r="U45" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V45" s="13" t="s">
@@ -8808,7 +8818,7 @@
         <v>1339402</v>
       </c>
       <c r="T46" s="7"/>
-      <c r="U46" s="13">
+      <c r="U46" s="20">
         <v>500000</v>
       </c>
       <c r="V46" s="13">
@@ -8964,7 +8974,7 @@
         <v>388164</v>
       </c>
       <c r="T47" s="7"/>
-      <c r="U47" s="13" t="s">
+      <c r="U47" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V47" s="13" t="s">
@@ -9117,7 +9127,7 @@
         <v>450807</v>
       </c>
       <c r="T48" s="7"/>
-      <c r="U48" s="13">
+      <c r="U48" s="20">
         <v>284394</v>
       </c>
       <c r="V48" s="13">
@@ -9272,7 +9282,7 @@
         <v>3842583</v>
       </c>
       <c r="T49" s="7"/>
-      <c r="U49" s="13">
+      <c r="U49" s="20">
         <v>800000</v>
       </c>
       <c r="V49" s="13">
@@ -9427,7 +9437,7 @@
         <v>40320</v>
       </c>
       <c r="T50" s="7"/>
-      <c r="U50" s="13">
+      <c r="U50" s="20">
         <v>36000</v>
       </c>
       <c r="V50" s="13">
@@ -9581,7 +9591,7 @@
         <v>7317696</v>
       </c>
       <c r="T51" s="7"/>
-      <c r="U51" s="13" t="s">
+      <c r="U51" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V51" s="13" t="s">
@@ -9736,7 +9746,7 @@
         <v>408923</v>
       </c>
       <c r="T52" s="7"/>
-      <c r="U52" s="13">
+      <c r="U52" s="20">
         <v>299998</v>
       </c>
       <c r="V52" s="13">
@@ -9893,7 +9903,7 @@
         <v>1438387</v>
       </c>
       <c r="T53" s="7"/>
-      <c r="U53" s="13">
+      <c r="U53" s="20">
         <v>469272</v>
       </c>
       <c r="V53" s="13">
@@ -10048,7 +10058,7 @@
         <v>3935231</v>
       </c>
       <c r="T54" s="7"/>
-      <c r="U54" s="13">
+      <c r="U54" s="20">
         <v>470250</v>
       </c>
       <c r="V54" s="13">
@@ -10205,7 +10215,7 @@
         <v>3090381</v>
       </c>
       <c r="T55" s="7"/>
-      <c r="U55" s="13">
+      <c r="U55" s="20">
         <v>800000</v>
       </c>
       <c r="V55" s="13">
@@ -10362,7 +10372,7 @@
         <v>480771</v>
       </c>
       <c r="T56" s="7"/>
-      <c r="U56" s="13">
+      <c r="U56" s="20">
         <v>245000</v>
       </c>
       <c r="V56" s="13">
@@ -10521,7 +10531,7 @@
         <v>5195071</v>
       </c>
       <c r="T57" s="7"/>
-      <c r="U57" s="13">
+      <c r="U57" s="20">
         <v>708765</v>
       </c>
       <c r="V57" s="13">
@@ -10678,7 +10688,7 @@
         <v>11479108</v>
       </c>
       <c r="T58" s="7"/>
-      <c r="U58" s="13">
+      <c r="U58" s="20">
         <v>900000</v>
       </c>
       <c r="V58" s="13">
@@ -10834,7 +10844,7 @@
         <v>84308755</v>
       </c>
       <c r="T59" s="7"/>
-      <c r="U59" s="13" t="s">
+      <c r="U59" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V59" s="13" t="s">
@@ -10989,7 +10999,7 @@
         <v>698350</v>
       </c>
       <c r="T60" s="7"/>
-      <c r="U60" s="13">
+      <c r="U60" s="20">
         <v>359443</v>
       </c>
       <c r="V60" s="13">
@@ -11144,7 +11154,7 @@
         <v>495000</v>
       </c>
       <c r="T61" s="7"/>
-      <c r="U61" s="13">
+      <c r="U61" s="20">
         <v>370000</v>
       </c>
       <c r="V61" s="13">
@@ -11299,7 +11309,7 @@
         <v>1587234</v>
       </c>
       <c r="T62" s="7"/>
-      <c r="U62" s="13">
+      <c r="U62" s="20">
         <v>384214</v>
       </c>
       <c r="V62" s="13">
@@ -11456,7 +11466,7 @@
         <v>1424504</v>
       </c>
       <c r="T63" s="7"/>
-      <c r="U63" s="13">
+      <c r="U63" s="20">
         <v>375000</v>
       </c>
       <c r="V63" s="13">
@@ -11613,7 +11623,7 @@
         <v>14678349</v>
       </c>
       <c r="T64" s="7"/>
-      <c r="U64" s="13">
+      <c r="U64" s="20">
         <v>1609615</v>
       </c>
       <c r="V64" s="13">
@@ -11768,7 +11778,7 @@
         <v>3789239</v>
       </c>
       <c r="T65" s="7"/>
-      <c r="U65" s="13">
+      <c r="U65" s="20">
         <v>718958</v>
       </c>
       <c r="V65" s="13">
@@ -11925,7 +11935,7 @@
         <v>1892314</v>
       </c>
       <c r="T66" s="7"/>
-      <c r="U66" s="13">
+      <c r="U66" s="20">
         <v>513500</v>
       </c>
       <c r="V66" s="13">
@@ -12080,7 +12090,7 @@
         <v>1394848</v>
       </c>
       <c r="T67" s="7"/>
-      <c r="U67" s="13">
+      <c r="U67" s="20">
         <v>500000</v>
       </c>
       <c r="V67" s="13">
@@ -12237,7 +12247,7 @@
         <v>3938035</v>
       </c>
       <c r="T68" s="7"/>
-      <c r="U68" s="13">
+      <c r="U68" s="20">
         <v>650000</v>
       </c>
       <c r="V68" s="13">
@@ -12394,7 +12404,7 @@
         <v>1719118</v>
       </c>
       <c r="T69" s="7"/>
-      <c r="U69" s="13">
+      <c r="U69" s="20">
         <v>503719</v>
       </c>
       <c r="V69" s="13">
@@ -12551,7 +12561,7 @@
         <v>1024955</v>
       </c>
       <c r="T70" s="7"/>
-      <c r="U70" s="13">
+      <c r="U70" s="20">
         <v>422300</v>
       </c>
       <c r="V70" s="13">
@@ -12706,7 +12716,7 @@
         <v>351560</v>
       </c>
       <c r="T71" s="7"/>
-      <c r="U71" s="13">
+      <c r="U71" s="20">
         <v>350000</v>
       </c>
       <c r="V71" s="13">
@@ -12863,7 +12873,7 @@
         <v>3291641</v>
       </c>
       <c r="T72" s="7"/>
-      <c r="U72" s="13" t="s">
+      <c r="U72" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V72" s="13" t="s">
@@ -13017,7 +13027,7 @@
         <v>3756409</v>
       </c>
       <c r="T73" s="7"/>
-      <c r="U73" s="13" t="s">
+      <c r="U73" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V73" s="13" t="s">
@@ -13172,7 +13182,7 @@
         <v>639801</v>
       </c>
       <c r="T74" s="7"/>
-      <c r="U74" s="13">
+      <c r="U74" s="20">
         <v>371436</v>
       </c>
       <c r="V74" s="13">
@@ -13333,7 +13343,7 @@
         <v>1551665</v>
       </c>
       <c r="T75" s="7"/>
-      <c r="U75" s="13">
+      <c r="U75" s="20">
         <v>500000</v>
       </c>
       <c r="V75" s="13">
@@ -13489,7 +13499,7 @@
         <v>155975</v>
       </c>
       <c r="T76" s="7"/>
-      <c r="U76" s="13" t="s">
+      <c r="U76" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V76" s="13" t="s">
@@ -13647,7 +13657,7 @@
         <v>1244174</v>
       </c>
       <c r="T77" s="7"/>
-      <c r="U77" s="13">
+      <c r="U77" s="20">
         <v>334519</v>
       </c>
       <c r="V77" s="13">
@@ -13802,7 +13812,7 @@
         <v>1761116</v>
       </c>
       <c r="T78" s="7"/>
-      <c r="U78" s="13">
+      <c r="U78" s="20">
         <v>482023</v>
       </c>
       <c r="V78" s="13">
@@ -13959,7 +13969,7 @@
         <v>7345259</v>
       </c>
       <c r="T79" s="7"/>
-      <c r="U79" s="13">
+      <c r="U79" s="20">
         <v>950000</v>
       </c>
       <c r="V79" s="13">
@@ -14117,7 +14127,7 @@
         <v>513408</v>
       </c>
       <c r="T80" s="7"/>
-      <c r="U80" s="13" t="s">
+      <c r="U80" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V80" s="13" t="s">
@@ -14272,7 +14282,7 @@
         <v>2883500</v>
       </c>
       <c r="T81" s="7"/>
-      <c r="U81" s="13">
+      <c r="U81" s="20">
         <v>744450</v>
       </c>
       <c r="V81" s="13">
@@ -14429,7 +14439,7 @@
         <v>3344572</v>
       </c>
       <c r="T82" s="7"/>
-      <c r="U82" s="13">
+      <c r="U82" s="20">
         <v>744889</v>
       </c>
       <c r="V82" s="13">
@@ -14586,7 +14596,7 @@
         <v>9699876</v>
       </c>
       <c r="T83" s="7"/>
-      <c r="U83" s="13">
+      <c r="U83" s="20">
         <v>1530000</v>
       </c>
       <c r="V83" s="13">
@@ -14743,7 +14753,7 @@
         <v>578190</v>
       </c>
       <c r="T84" s="7"/>
-      <c r="U84" s="13">
+      <c r="U84" s="20">
         <v>325000</v>
       </c>
       <c r="V84" s="13">
@@ -14898,7 +14908,7 @@
         <v>691695</v>
       </c>
       <c r="T85" s="7"/>
-      <c r="U85" s="13">
+      <c r="U85" s="20">
         <v>482288</v>
       </c>
       <c r="V85" s="13">
@@ -15053,7 +15063,7 @@
         <v>2640893</v>
       </c>
       <c r="T86" s="7"/>
-      <c r="U86" s="13">
+      <c r="U86" s="20">
         <v>450000</v>
       </c>
       <c r="V86" s="13">
@@ -15209,7 +15219,7 @@
         <v>886366</v>
       </c>
       <c r="T87" s="7"/>
-      <c r="U87" s="13" t="s">
+      <c r="U87" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V87" s="13" t="s">
@@ -15362,7 +15372,7 @@
         <v>705543</v>
       </c>
       <c r="T88" s="7"/>
-      <c r="U88" s="13">
+      <c r="U88" s="20">
         <v>199650</v>
       </c>
       <c r="V88" s="13">
@@ -15516,7 +15526,7 @@
         <v>2733322</v>
       </c>
       <c r="T89" s="7"/>
-      <c r="U89" s="13" t="s">
+      <c r="U89" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V89" s="13" t="s">
@@ -15671,7 +15681,7 @@
         <v>280075</v>
       </c>
       <c r="T90" s="7"/>
-      <c r="U90" s="13">
+      <c r="U90" s="20">
         <v>242518</v>
       </c>
       <c r="V90" s="13">
@@ -15826,7 +15836,7 @@
         <v>226965</v>
       </c>
       <c r="T91" s="7"/>
-      <c r="U91" s="13">
+      <c r="U91" s="20">
         <v>190974</v>
       </c>
       <c r="V91" s="13">
@@ -15985,7 +15995,7 @@
         <v>6270184</v>
       </c>
       <c r="T92" s="7"/>
-      <c r="U92" s="13">
+      <c r="U92" s="20">
         <v>1000000</v>
       </c>
       <c r="V92" s="13">
@@ -16142,7 +16152,7 @@
         <v>6863212</v>
       </c>
       <c r="T93" s="7"/>
-      <c r="U93" s="13">
+      <c r="U93" s="20">
         <v>722917</v>
       </c>
       <c r="V93" s="13">
@@ -16299,7 +16309,7 @@
         <v>464075</v>
       </c>
       <c r="T94" s="7"/>
-      <c r="U94" s="13">
+      <c r="U94" s="20">
         <v>32000</v>
       </c>
       <c r="V94" s="13">
@@ -16457,7 +16467,7 @@
         <v>809531</v>
       </c>
       <c r="T95" s="7"/>
-      <c r="U95" s="13">
+      <c r="U95" s="20">
         <v>306425</v>
       </c>
       <c r="V95" s="13">
@@ -16616,7 +16626,7 @@
         <v>5048172</v>
       </c>
       <c r="T96" s="7"/>
-      <c r="U96" s="13">
+      <c r="U96" s="20">
         <v>925000</v>
       </c>
       <c r="V96" s="13">
@@ -16773,7 +16783,7 @@
         <v>21466454</v>
       </c>
       <c r="T97" s="7"/>
-      <c r="U97" s="13">
+      <c r="U97" s="20">
         <v>1500000</v>
       </c>
       <c r="V97" s="13">
@@ -16930,7 +16940,7 @@
         <v>4792086</v>
       </c>
       <c r="T98" s="7"/>
-      <c r="U98" s="13">
+      <c r="U98" s="20">
         <v>525000</v>
       </c>
       <c r="V98" s="13">
@@ -17087,7 +17097,7 @@
         <v>528355</v>
       </c>
       <c r="T99" s="7"/>
-      <c r="U99" s="13">
+      <c r="U99" s="20">
         <v>300000</v>
       </c>
       <c r="V99" s="13">
@@ -17244,7 +17254,7 @@
         <v>5300463</v>
       </c>
       <c r="T100" s="7"/>
-      <c r="U100" s="13">
+      <c r="U100" s="20">
         <v>775333</v>
       </c>
       <c r="V100" s="13">
@@ -17401,7 +17411,7 @@
         <v>358525</v>
       </c>
       <c r="T101" s="7"/>
-      <c r="U101" s="13">
+      <c r="U101" s="20">
         <v>237000</v>
       </c>
       <c r="V101" s="13">
@@ -17558,7 +17568,7 @@
         <v>288934</v>
       </c>
       <c r="T102" s="7"/>
-      <c r="U102" s="13">
+      <c r="U102" s="20">
         <v>220500</v>
       </c>
       <c r="V102" s="13">
@@ -17715,7 +17725,7 @@
         <v>18567001</v>
       </c>
       <c r="T103" s="7"/>
-      <c r="U103" s="13">
+      <c r="U103" s="20">
         <v>1250000</v>
       </c>
       <c r="V103" s="13">
@@ -17874,7 +17884,7 @@
         <v>3056200</v>
       </c>
       <c r="T104" s="7"/>
-      <c r="U104" s="13">
+      <c r="U104" s="20">
         <v>600001</v>
       </c>
       <c r="V104" s="13">
@@ -18029,7 +18039,7 @@
         <v>482550</v>
       </c>
       <c r="T105" s="7"/>
-      <c r="U105" s="13">
+      <c r="U105" s="20">
         <v>320960</v>
       </c>
       <c r="V105" s="13">
@@ -18184,7 +18194,7 @@
         <v>1042406</v>
       </c>
       <c r="T106" s="7"/>
-      <c r="U106" s="13" t="s">
+      <c r="U106" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V106" s="13" t="s">
@@ -18339,7 +18349,7 @@
         <v>3618686</v>
       </c>
       <c r="T107" s="7"/>
-      <c r="U107" s="13">
+      <c r="U107" s="20">
         <v>815000</v>
       </c>
       <c r="V107" s="13">
@@ -18493,7 +18503,7 @@
         <v>787092</v>
       </c>
       <c r="T108" s="7"/>
-      <c r="U108" s="13" t="s">
+      <c r="U108" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V108" s="13" t="s">
@@ -18648,7 +18658,7 @@
         <v>3414824</v>
       </c>
       <c r="T109" s="7"/>
-      <c r="U109" s="13">
+      <c r="U109" s="20">
         <v>750000</v>
       </c>
       <c r="V109" s="13">
@@ -18802,7 +18812,7 @@
         <v>7995331</v>
       </c>
       <c r="T110" s="7"/>
-      <c r="U110" s="13" t="s">
+      <c r="U110" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V110" s="13" t="s">
@@ -18955,7 +18965,7 @@
         <v>423861</v>
       </c>
       <c r="T111" s="7"/>
-      <c r="U111" s="13">
+      <c r="U111" s="20">
         <v>251622</v>
       </c>
       <c r="V111" s="13">
@@ -19112,7 +19122,7 @@
         <v>512553</v>
       </c>
       <c r="T112" s="7"/>
-      <c r="U112" s="13">
+      <c r="U112" s="20">
         <v>473570</v>
       </c>
       <c r="V112" s="13">
@@ -19269,7 +19279,7 @@
         <v>324349</v>
       </c>
       <c r="T113" s="7"/>
-      <c r="U113" s="13">
+      <c r="U113" s="20">
         <v>249349</v>
       </c>
       <c r="V113" s="13">
@@ -19424,7 +19434,7 @@
         <v>1016018</v>
       </c>
       <c r="T114" s="7"/>
-      <c r="U114" s="13">
+      <c r="U114" s="20">
         <v>649769</v>
       </c>
       <c r="V114" s="13">
@@ -19520,5 +19530,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>